--- a/myblog_API_명세서.xlsx
+++ b/myblog_API_명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khs13\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khs13\OneDrive\Desktop\sparta\myblog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{632E31FB-B583-4C0F-9508-27CE3D528EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E18D5-1942-4B9D-A767-4655E0231E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{24E7FC0A-720E-4CB6-A680-868C5A08DF6A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>/api/post/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/post/password/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464A9305-3812-4BB4-A8BC-B83BE32CB898}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
